--- a/data/Enderecos.xlsx
+++ b/data/Enderecos.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE274C4-883B-443B-9DBA-BA30086E6B31}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C94C02B-4183-4914-BB9D-C382CA0CF24B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3255" yWindow="1230" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Logradouro</t>
   </si>
@@ -41,15 +41,6 @@
   </si>
   <si>
     <t>RS</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>Farrapos</t>
-  </si>
-  <si>
-    <t>Rua deputado joao caruso</t>
   </si>
   <si>
     <t>55</t>
@@ -65,7 +56,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,13 +76,6 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF222222"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -117,12 +101,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,7 +417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -444,32 +427,15 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E12" s="2"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
